--- a/src/test/java/com/mystore/testData/PersonalInfoModuleData.xlsx
+++ b/src/test/java/com/mystore/testData/PersonalInfoModuleData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="16">
   <si>
     <t xml:space="preserve">Title</t>
   </si>
@@ -77,7 +77,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -103,21 +103,9 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Coll"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Coll"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -131,6 +119,7 @@
       <color rgb="FF111111"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -195,7 +184,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -204,14 +193,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -221,14 +210,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -312,7 +293,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H4" activeCellId="0" sqref="H4"/>
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -320,7 +301,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.22"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="28.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="14.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.56"/>
@@ -343,10 +324,10 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
@@ -355,171 +336,175 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5" t="n">
+      <c r="H2" s="3"/>
+      <c r="I2" s="3" t="n">
         <v>12345678</v>
       </c>
-      <c r="J2" s="5" t="n">
+      <c r="J2" s="3" t="n">
         <v>12345678</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="30.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="6"/>
+      <c r="A3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="E4" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="2" t="n">
         <v>1997</v>
       </c>
-      <c r="H4" s="4" t="n">
+      <c r="H4" s="3" t="n">
         <v>12345</v>
       </c>
-      <c r="I4" s="5" t="n">
+      <c r="I4" s="3" t="n">
         <v>12345678</v>
       </c>
-      <c r="J4" s="5" t="n">
+      <c r="J4" s="3" t="n">
         <v>12345678</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="20.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="n">
+      <c r="G5" s="6" t="n">
         <v>1997</v>
       </c>
-      <c r="H5" s="7" t="n">
+      <c r="H5" s="5" t="n">
         <v>65432</v>
       </c>
-      <c r="I5" s="5" t="n">
+      <c r="I5" s="3" t="n">
         <v>12345678</v>
       </c>
-      <c r="J5" s="5" t="n">
+      <c r="J5" s="3" t="n">
         <v>12345678</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="n">
+      <c r="G6" s="6" t="n">
         <v>1997</v>
       </c>
-      <c r="H6" s="7" t="n">
+      <c r="H6" s="5" t="n">
         <v>654321</v>
       </c>
-      <c r="I6" s="5" t="n">
+      <c r="I6" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="J6" s="5" t="n">
+      <c r="J6" s="3" t="n">
         <v>123</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="22.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="8" t="n">
-        <v>12</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="6" t="n">
+        <v>12</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8" t="n">
+      <c r="G7" s="6" t="n">
         <v>1997</v>
       </c>
-      <c r="H7" s="7" t="n">
+      <c r="H7" s="5" t="n">
         <v>654321</v>
       </c>
-      <c r="I7" s="5" t="n">
+      <c r="I7" s="3" t="n">
         <v>123</v>
       </c>
-      <c r="J7" s="5"/>
+      <c r="J7" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
